--- a/Planning/TaskSchedule.xlsx
+++ b/Planning/TaskSchedule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="102">
   <si>
     <t>Id</t>
   </si>
@@ -213,9 +213,6 @@
     <t>QAndAFormular</t>
   </si>
   <si>
-    <t>RestClient Grundgerüst</t>
-  </si>
-  <si>
     <t>Cloze</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
     <t>Startseite</t>
   </si>
   <si>
-    <t>Userbox</t>
-  </si>
-  <si>
     <t>Weiterleiten auf die nächste Seite</t>
   </si>
   <si>
@@ -267,21 +261,12 @@
     <t>Mysql und wildfly instalieren, Tabellen erstellen</t>
   </si>
   <si>
-    <t>Wildfly instalieren</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mysql installieren </t>
   </si>
   <si>
     <t>und mit wildfly verbinden</t>
   </si>
   <si>
-    <t>Models erstellen</t>
-  </si>
-  <si>
-    <t>Endpoints erstellen</t>
-  </si>
-  <si>
     <t>Dataacess erstellen</t>
   </si>
   <si>
@@ -295,13 +280,61 @@
   </si>
   <si>
     <t>Formular erstellen</t>
+  </si>
+  <si>
+    <t>Notiz</t>
+  </si>
+  <si>
+    <t>Wildfly installieren</t>
+  </si>
+  <si>
+    <t>Model erstellen</t>
+  </si>
+  <si>
+    <t>Model aufzeichnen</t>
+  </si>
+  <si>
+    <t>Create GET Request</t>
+  </si>
+  <si>
+    <t>Create POST Request</t>
+  </si>
+  <si>
+    <t>if needed</t>
+  </si>
+  <si>
+    <t>Create PUT Request</t>
+  </si>
+  <si>
+    <t>Create DELETE Request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RestClient </t>
+  </si>
+  <si>
+    <t>LoginSeite</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>siehe #41</t>
+  </si>
+  <si>
+    <t>siehe #42</t>
+  </si>
+  <si>
+    <t>siehe #31</t>
+  </si>
+  <si>
+    <t>Steffi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +344,20 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -428,15 +475,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -455,30 +497,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -579,6 +620,43 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -609,13 +687,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A3:C30" totalsRowShown="0">
   <autoFilter ref="A3:C30" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="20">
       <calculatedColumnFormula>TaskOverview!A5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Issue Title" dataDxfId="17">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Issue Title" dataDxfId="19">
       <calculatedColumnFormula>TaskOverview!B5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Deadline" dataDxfId="16">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Deadline" dataDxfId="18">
       <calculatedColumnFormula>TaskOverview!F5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -624,9 +702,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle2" displayName="Tabelle2" ref="A4:J51" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="A4:J51" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle2" displayName="Tabelle2" ref="A4:K51" totalsRowShown="0" tableBorderDxfId="17">
+  <autoFilter ref="A4:K51" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Issue Title"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description"/>
@@ -635,9 +713,10 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Deadline"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Planned h"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Worked h"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Result" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Result" dataDxfId="16">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="11" xr3:uid="{57BB1E60-A422-41D6-BD3B-08AE9227D00E}" name="Notiz" dataDxfId="15"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -645,8 +724,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle24" displayName="Tabelle24" ref="A4:J51" totalsRowShown="0">
-  <autoFilter ref="A4:J51" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle24" displayName="Tabelle24" ref="A4:J57" totalsRowShown="0">
+  <autoFilter ref="A4:J57" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Issue Title"/>
@@ -656,7 +735,9 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Deadline"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Planned h"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Worked h"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Result"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Result" dataDxfId="0">
+      <calculatedColumnFormula>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -928,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,11 +1020,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -970,7 +1051,7 @@
         <f>TaskOverview!B5</f>
         <v>Create a Angular 2 Projekt</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f>TaskOverview!F5</f>
         <v>42944</v>
       </c>
@@ -984,7 +1065,7 @@
         <f>TaskOverview!B6</f>
         <v>Server</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <f>TaskOverview!F6</f>
         <v>42993</v>
       </c>
@@ -996,11 +1077,11 @@
       </c>
       <c r="B6" t="str">
         <f>TaskOverview!B7</f>
-        <v>RestClient Grundgerüst</v>
-      </c>
-      <c r="C6" s="3">
+        <v xml:space="preserve">RestClient </v>
+      </c>
+      <c r="C6" s="2">
         <f>TaskOverview!F7</f>
-        <v>43002</v>
+        <v>43032</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1012,9 +1093,9 @@
         <f>TaskOverview!B8</f>
         <v>Grundgerüst</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <f>TaskOverview!F8</f>
-        <v>43002</v>
+        <v>43025</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1026,7 +1107,7 @@
         <f>TaskOverview!B9</f>
         <v>0</v>
       </c>
-      <c r="C8" s="3" t="str">
+      <c r="C8" s="2" t="str">
         <f>TaskOverview!F9</f>
         <v>-</v>
       </c>
@@ -1040,9 +1121,9 @@
         <f>TaskOverview!B10</f>
         <v>QAndAFormular</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <f>TaskOverview!F10</f>
-        <v>43009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1054,9 +1135,9 @@
         <f>TaskOverview!B11</f>
         <v>Cloze</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <f>TaskOverview!F11</f>
-        <v>43009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1068,7 +1149,7 @@
         <f>TaskOverview!B12</f>
         <v>RightorWrong</v>
       </c>
-      <c r="C11" s="3" t="str">
+      <c r="C11" s="2" t="str">
         <f>TaskOverview!F12</f>
         <v>-</v>
       </c>
@@ -1082,7 +1163,7 @@
         <f>TaskOverview!B13</f>
         <v>Multichoise</v>
       </c>
-      <c r="C12" s="3" t="str">
+      <c r="C12" s="2" t="str">
         <f>TaskOverview!F13</f>
         <v>-</v>
       </c>
@@ -1096,7 +1177,7 @@
         <f>TaskOverview!B14</f>
         <v>Memory</v>
       </c>
-      <c r="C13" s="3" t="str">
+      <c r="C13" s="2" t="str">
         <f>TaskOverview!F14</f>
         <v>-</v>
       </c>
@@ -1110,7 +1191,7 @@
         <f>TaskOverview!B15</f>
         <v>LatexDocumentBasicChapters</v>
       </c>
-      <c r="C14" s="3" t="str">
+      <c r="C14" s="2" t="str">
         <f>TaskOverview!F15</f>
         <v>-</v>
       </c>
@@ -1124,7 +1205,7 @@
         <f>TaskOverview!B16</f>
         <v>0</v>
       </c>
-      <c r="C15" s="3" t="str">
+      <c r="C15" s="2" t="str">
         <f>TaskOverview!F16</f>
         <v>-</v>
       </c>
@@ -1138,7 +1219,7 @@
         <f>TaskOverview!B17</f>
         <v>0</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16" s="2" t="str">
         <f>TaskOverview!F17</f>
         <v>-</v>
       </c>
@@ -1152,7 +1233,7 @@
         <f>TaskOverview!B18</f>
         <v>0</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17" s="2" t="str">
         <f>TaskOverview!F18</f>
         <v>-</v>
       </c>
@@ -1166,7 +1247,7 @@
         <f>TaskOverview!B19</f>
         <v>0</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18" s="2" t="str">
         <f>TaskOverview!F19</f>
         <v>-</v>
       </c>
@@ -1180,7 +1261,7 @@
         <f>TaskOverview!B20</f>
         <v>0</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19" s="2" t="str">
         <f>TaskOverview!F20</f>
         <v>-</v>
       </c>
@@ -1194,7 +1275,7 @@
         <f>TaskOverview!B21</f>
         <v>0</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20" s="2" t="str">
         <f>TaskOverview!F21</f>
         <v>-</v>
       </c>
@@ -1208,7 +1289,7 @@
         <f>TaskOverview!B22</f>
         <v>0</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21" s="2" t="str">
         <f>TaskOverview!F22</f>
         <v>-</v>
       </c>
@@ -1222,7 +1303,7 @@
         <f>TaskOverview!B23</f>
         <v>0</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22" s="2" t="str">
         <f>TaskOverview!F23</f>
         <v>-</v>
       </c>
@@ -1236,7 +1317,7 @@
         <f>TaskOverview!B24</f>
         <v>0</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C23" s="2" t="str">
         <f>TaskOverview!F24</f>
         <v>-</v>
       </c>
@@ -1250,7 +1331,7 @@
         <f>TaskOverview!B25</f>
         <v>0</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24" s="2" t="str">
         <f>TaskOverview!F25</f>
         <v>-</v>
       </c>
@@ -1264,7 +1345,7 @@
         <f>TaskOverview!B26</f>
         <v>0</v>
       </c>
-      <c r="C25" t="str">
+      <c r="C25" s="2" t="str">
         <f>TaskOverview!F26</f>
         <v>-</v>
       </c>
@@ -1278,7 +1359,7 @@
         <f>TaskOverview!B27</f>
         <v>0</v>
       </c>
-      <c r="C26" t="str">
+      <c r="C26" s="2" t="str">
         <f>TaskOverview!F27</f>
         <v>-</v>
       </c>
@@ -1292,7 +1373,7 @@
         <f>TaskOverview!B28</f>
         <v>0</v>
       </c>
-      <c r="C27" t="str">
+      <c r="C27" s="2" t="str">
         <f>TaskOverview!F28</f>
         <v>-</v>
       </c>
@@ -1306,7 +1387,7 @@
         <f>TaskOverview!B29</f>
         <v>0</v>
       </c>
-      <c r="C28" t="str">
+      <c r="C28" s="2" t="str">
         <f>TaskOverview!F29</f>
         <v>-</v>
       </c>
@@ -1320,7 +1401,7 @@
         <f>TaskOverview!B30</f>
         <v>0</v>
       </c>
-      <c r="C29" t="str">
+      <c r="C29" s="2" t="str">
         <f>TaskOverview!F30</f>
         <v>-</v>
       </c>
@@ -1334,7 +1415,7 @@
         <f>TaskOverview!B31</f>
         <v>0</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C30" s="2" t="str">
         <f>TaskOverview!F31</f>
         <v>-</v>
       </c>
@@ -1352,1087 +1433,1147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.5546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5">
+      <c r="C5" s="13"/>
+      <c r="D5" s="14">
         <v>42944</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="14">
         <v>42944</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="14">
         <v>42944</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="13">
         <v>3</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+      <c r="H5" s="13">
         <v>3</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="I5" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="14">
+        <v>42950</v>
+      </c>
+      <c r="E6" s="14">
+        <v>43007</v>
+      </c>
+      <c r="F6" s="14">
+        <v>42993</v>
+      </c>
+      <c r="G6" s="13">
+        <v>8</v>
+      </c>
+      <c r="H6" s="13">
+        <v>12</v>
+      </c>
+      <c r="I6" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>-4</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M6" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="5">
-        <v>42950</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
-        <v>42993</v>
-      </c>
-      <c r="G6" s="4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14">
+        <v>43012</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14">
+        <v>43032</v>
+      </c>
+      <c r="G7" s="13">
+        <v>10</v>
+      </c>
+      <c r="H7" s="13">
         <v>8</v>
       </c>
-      <c r="H6" s="4">
-        <v>4</v>
-      </c>
-      <c r="I6" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>4</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="I7" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>2</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14">
+        <v>42972</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14">
+        <v>43025</v>
+      </c>
+      <c r="G8" s="13">
+        <v>10</v>
+      </c>
+      <c r="H8" s="13">
+        <v>3</v>
+      </c>
+      <c r="I8" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>7</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="13">
+        <v>10</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>10</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5">
-        <v>43002</v>
-      </c>
-      <c r="G7" s="4">
+      <c r="C11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="13">
         <v>10</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4">
+      <c r="H11" s="13"/>
+      <c r="I11" s="13">
         <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
         <v>10</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="13">
+        <v>10</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>10</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="13">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5">
-        <v>43002</v>
-      </c>
-      <c r="G8" s="4">
-        <v>10</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>10</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5">
-        <v>43009</v>
-      </c>
-      <c r="G10" s="4">
-        <v>10</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>10</v>
-      </c>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5">
-        <v>43009</v>
-      </c>
-      <c r="G11" s="4">
-        <v>10</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>10</v>
-      </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="4">
-        <v>10</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>10</v>
-      </c>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="H13" s="13"/>
+      <c r="I13" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>15</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="4">
-        <v>15</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>15</v>
-      </c>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="13">
+        <v>5</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>5</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="4">
-        <v>5</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>5</v>
-      </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="4"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="4"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="4"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="4"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="4"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A2:K2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A9:J51 A8:E8 G8:J8">
-    <cfRule type="expression" dxfId="15" priority="13">
+  <conditionalFormatting sqref="A9:K51 A8:E8 G8:K8">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>$E8 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$F8 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E8 G8:J8">
-    <cfRule type="expression" dxfId="13" priority="12">
+  <conditionalFormatting sqref="A8:E8 G8:K8">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>ISBLANK($F8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9:J51">
-    <cfRule type="expression" dxfId="12" priority="11">
+  <conditionalFormatting sqref="A9:K51">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>ISBLANK($F9)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:J7 F8">
-    <cfRule type="expression" dxfId="11" priority="9">
+  <conditionalFormatting sqref="A5:K7 F8">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>$E5 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$F5 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:J7 F8">
-    <cfRule type="expression" dxfId="9" priority="8">
+  <conditionalFormatting sqref="A5:K7 F8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>ISBLANK($F5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="8" priority="6">
+  <conditionalFormatting sqref="M5">
+    <cfRule type="expression" dxfId="7" priority="6">
       <formula>$E5 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$F5 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="6" priority="5">
+  <conditionalFormatting sqref="M5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>ISBLANK($F5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="5" priority="3">
+  <conditionalFormatting sqref="M6">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$E6 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$F6 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6">
-    <cfRule type="expression" dxfId="3" priority="2">
+  <conditionalFormatting sqref="M6">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>ISBLANK($F6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:J7 F8">
-    <cfRule type="expression" dxfId="2" priority="1">
+  <conditionalFormatting sqref="A7:K7 F8">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>Montag() &lt; $F7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2445,10 +2586,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2459,18 +2600,18 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -2509,7 +2650,14 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>87</v>
+      </c>
+      <c r="I5">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2517,10 +2665,17 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="I6">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2528,63 +2683,529 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2">
+        <v>42943</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
+        <v>43021</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43012</v>
+      </c>
+      <c r="F8" s="2">
+        <v>43025</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>81</v>
+      </c>
+      <c r="D9" s="2">
+        <v>43012</v>
+      </c>
+      <c r="F9" s="2">
+        <v>43025</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>90</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43012</v>
+      </c>
+      <c r="F10" s="2">
+        <v>43025</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="F11" s="2">
+        <v>43032</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>93</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="F12" s="2">
+        <v>43032</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>94</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="F13" s="2">
+        <v>43025</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="2">
+        <v>42972</v>
+      </c>
+      <c r="F14" s="2">
+        <v>43025</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="F15" s="2">
+        <v>43025</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="2">
+        <v>43025</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="2">
+        <v>43025</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F18" s="2"/>
+      <c r="I18">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="I19">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="I20">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I50">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I53">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I54">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I55">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I56">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I57">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Planning/TaskSchedule.xlsx
+++ b/Planning/TaskSchedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="148">
   <si>
     <t>Id</t>
   </si>
@@ -270,15 +270,9 @@
     <t>Dataacess erstellen</t>
   </si>
   <si>
-    <t>#61</t>
-  </si>
-  <si>
     <t>Erklärung mit Verweis auf Formular erstellen</t>
   </si>
   <si>
-    <t xml:space="preserve">#62 </t>
-  </si>
-  <si>
     <t>Formular erstellen</t>
   </si>
   <si>
@@ -328,6 +322,150 @@
   </si>
   <si>
     <t>Steffi</t>
+  </si>
+  <si>
+    <t>Einloggen</t>
+  </si>
+  <si>
+    <t>Registrierren</t>
+  </si>
+  <si>
+    <t>Probespiel</t>
+  </si>
+  <si>
+    <t>Spielen</t>
+  </si>
+  <si>
+    <t>#101</t>
+  </si>
+  <si>
+    <t>#102</t>
+  </si>
+  <si>
+    <t>#103</t>
+  </si>
+  <si>
+    <t>#104</t>
+  </si>
+  <si>
+    <t>#021</t>
+  </si>
+  <si>
+    <t>#022</t>
+  </si>
+  <si>
+    <t>#031</t>
+  </si>
+  <si>
+    <t>#032</t>
+  </si>
+  <si>
+    <t>#033</t>
+  </si>
+  <si>
+    <t>#034</t>
+  </si>
+  <si>
+    <t>#030</t>
+  </si>
+  <si>
+    <t>#035</t>
+  </si>
+  <si>
+    <t>#036</t>
+  </si>
+  <si>
+    <t>#041</t>
+  </si>
+  <si>
+    <t>#042</t>
+  </si>
+  <si>
+    <t>#043</t>
+  </si>
+  <si>
+    <t>#044</t>
+  </si>
+  <si>
+    <t>#061</t>
+  </si>
+  <si>
+    <t>#062</t>
+  </si>
+  <si>
+    <t>#063</t>
+  </si>
+  <si>
+    <t>#064</t>
+  </si>
+  <si>
+    <t>#071</t>
+  </si>
+  <si>
+    <t>#072</t>
+  </si>
+  <si>
+    <t>#073</t>
+  </si>
+  <si>
+    <t>#074</t>
+  </si>
+  <si>
+    <t>#081</t>
+  </si>
+  <si>
+    <t>#082</t>
+  </si>
+  <si>
+    <t>#083</t>
+  </si>
+  <si>
+    <t>#084</t>
+  </si>
+  <si>
+    <t>#091</t>
+  </si>
+  <si>
+    <t>#092</t>
+  </si>
+  <si>
+    <t>#093</t>
+  </si>
+  <si>
+    <t>#094</t>
+  </si>
+  <si>
+    <t>#110</t>
+  </si>
+  <si>
+    <t>#120</t>
+  </si>
+  <si>
+    <t>#130</t>
+  </si>
+  <si>
+    <t>Registrier Formular</t>
+  </si>
+  <si>
+    <t>#131</t>
+  </si>
+  <si>
+    <t>Daten in die Datenbank speichern</t>
+  </si>
+  <si>
+    <t>#121</t>
+  </si>
+  <si>
+    <t>User anzeigen rechts</t>
+  </si>
+  <si>
+    <t>UserFormular</t>
+  </si>
+  <si>
+    <t>#122</t>
+  </si>
+  <si>
+    <t>Überprüfen ob User existiert</t>
   </si>
 </sst>
 </file>
@@ -475,7 +613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -513,14 +651,12 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -618,6 +754,9 @@
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -724,8 +863,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle24" displayName="Tabelle24" ref="A4:J57" totalsRowShown="0">
-  <autoFilter ref="A4:J57" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle24" displayName="Tabelle24" ref="A4:J60" totalsRowShown="0">
+  <autoFilter ref="A4:J60" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Issue Title"/>
@@ -735,7 +874,7 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Deadline"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Planned h"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Worked h"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Result" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Result" dataDxfId="14">
       <calculatedColumnFormula>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Name"/>
@@ -1201,9 +1340,9 @@
         <f>TaskOverview!A16</f>
         <v>#12</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="str">
         <f>TaskOverview!B16</f>
-        <v>0</v>
+        <v>Einloggen</v>
       </c>
       <c r="C15" s="2" t="str">
         <f>TaskOverview!F16</f>
@@ -1215,9 +1354,9 @@
         <f>TaskOverview!A17</f>
         <v>#13</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="str">
         <f>TaskOverview!B17</f>
-        <v>0</v>
+        <v>Registrierren</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>TaskOverview!F17</f>
@@ -1435,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1492,7 +1631,7 @@
         <v>7</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>8</v>
@@ -1575,7 +1714,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="14">
@@ -1795,7 +1934,9 @@
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -1815,7 +1956,9 @@
       <c r="A17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -2516,64 +2659,64 @@
     <mergeCell ref="A2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:K51 A8:E8 G8:K8">
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>$E8 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>$F8 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:E8 G8:K8">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>ISBLANK($F8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:K51">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>ISBLANK($F9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:K7 F8">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>$E5 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>$F5 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:K7 F8">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>ISBLANK($F5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$E5 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>$F5 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>ISBLANK($F5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$E6 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$F6 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>ISBLANK($F6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:K7 F8">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>Montag() &lt; $F7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2586,10 +2729,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2647,10 +2790,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I5">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
@@ -2662,7 +2805,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
         <v>79</v>
@@ -2680,13 +2823,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" s="2">
         <v>42943</v>
@@ -2708,10 +2851,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2">
         <v>43012</v>
@@ -2732,7 +2875,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
         <v>81</v>
@@ -2759,10 +2902,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2">
         <v>43012</v>
@@ -2783,13 +2926,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D11" s="2"/>
       <c r="F11" s="2">
@@ -2808,13 +2951,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" s="2"/>
       <c r="F12" s="2">
@@ -2833,13 +2976,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D13" s="2"/>
       <c r="F13" s="2">
@@ -2858,13 +3001,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
         <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D14" s="2">
         <v>42972</v>
@@ -2883,18 +3026,18 @@
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D15" s="2"/>
       <c r="F15" s="2">
@@ -2908,12 +3051,12 @@
         <v>4</v>
       </c>
       <c r="J15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -2929,15 +3072,15 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F17" s="2">
         <v>43025</v>
@@ -2950,7 +3093,7 @@
         <v>4</v>
       </c>
       <c r="J17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -2962,10 +3105,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" t="s">
         <v>82</v>
-      </c>
-      <c r="B19" t="s">
-        <v>83</v>
       </c>
       <c r="F19" s="2"/>
       <c r="I19">
@@ -2975,10 +3118,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F20" s="2"/>
       <c r="I20">
@@ -2987,12 +3130,24 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
       <c r="I21">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" t="s">
+        <v>103</v>
+      </c>
       <c r="I22">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
@@ -3005,24 +3160,48 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
       <c r="I24">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
       <c r="I25">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
       <c r="I26">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
       <c r="I27">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
@@ -3035,175 +3214,298 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
       <c r="I29">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
       <c r="I30">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
       <c r="I31">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
       <c r="I32">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I33">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
       <c r="I34">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
       <c r="I35">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
       <c r="I36">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
       <c r="I37">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I38">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
       <c r="I39">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
       <c r="I40">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
       <c r="I41">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
       <c r="I42">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I43">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>137</v>
+      </c>
       <c r="I44">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I45">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I46">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I46" s="19">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" t="s">
+        <v>144</v>
+      </c>
       <c r="I47">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I48">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I49">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" t="s">
+        <v>145</v>
+      </c>
+      <c r="I48" s="19">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+      <c r="I49" s="19">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I50">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" t="s">
+        <v>140</v>
+      </c>
       <c r="I51">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
       <c r="I52">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I53">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I54">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I55">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I56">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I57">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I58">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I59">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I60">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>

--- a/Planning/TaskSchedule.xlsx
+++ b/Planning/TaskSchedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="155">
   <si>
     <t>Id</t>
   </si>
@@ -234,9 +234,6 @@
     <t>Jasmin</t>
   </si>
   <si>
-    <t>Seffi</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -466,13 +463,37 @@
   </si>
   <si>
     <t>Überprüfen ob User existiert</t>
+  </si>
+  <si>
+    <t>#037</t>
+  </si>
+  <si>
+    <t>CORS</t>
+  </si>
+  <si>
+    <t>in Restfull einbinden</t>
+  </si>
+  <si>
+    <t>#045</t>
+  </si>
+  <si>
+    <t>Userbox</t>
+  </si>
+  <si>
+    <t>mit einen Standartuser</t>
+  </si>
+  <si>
+    <t>#046</t>
+  </si>
+  <si>
+    <t>Menüleiste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,13 +503,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -510,6 +524,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -613,10 +641,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -626,37 +661,72 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -759,46 +829,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -841,7 +871,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle2" displayName="Tabelle2" ref="A4:K51" totalsRowShown="0" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle2" displayName="Tabelle2" ref="A4:K51" totalsRowShown="0" tableBorderDxfId="3">
   <autoFilter ref="A4:K51" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id"/>
@@ -852,10 +882,10 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Deadline"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Planned h"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Worked h"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Result" dataDxfId="16">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Result" dataDxfId="2">
       <calculatedColumnFormula>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{57BB1E60-A422-41D6-BD3B-08AE9227D00E}" name="Notiz" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{57BB1E60-A422-41D6-BD3B-08AE9227D00E}" name="Notiz" dataDxfId="1"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -863,8 +893,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle24" displayName="Tabelle24" ref="A4:J60" totalsRowShown="0">
-  <autoFilter ref="A4:J60" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabelle24" displayName="Tabelle24" ref="A4:J63" totalsRowShown="0">
+  <autoFilter ref="A4:J63" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Id"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Issue Title"/>
@@ -874,7 +904,7 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Deadline"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Planned h"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Worked h"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Result" dataDxfId="14">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Result" dataDxfId="0">
       <calculatedColumnFormula>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Name"/>
@@ -1159,11 +1189,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1574,1149 +1604,1149 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.5546875" style="9"/>
+    <col min="1" max="1" width="8.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:13" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="12"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="K4" s="13" t="s">
+      <c r="J4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5">
         <v>42944</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="5">
         <v>42944</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="5">
         <v>42944</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="4">
         <v>3</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="4">
         <v>3</v>
       </c>
-      <c r="I5" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13" t="s">
+      <c r="I5" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="5">
+        <v>42950</v>
+      </c>
+      <c r="E6" s="5">
+        <v>43007</v>
+      </c>
+      <c r="F6" s="5">
+        <v>42993</v>
+      </c>
+      <c r="G6" s="4">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4">
+        <v>12</v>
+      </c>
+      <c r="I6" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>-4</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="14">
-        <v>42950</v>
-      </c>
-      <c r="E6" s="14">
-        <v>43007</v>
-      </c>
-      <c r="F6" s="14">
-        <v>42993</v>
-      </c>
-      <c r="G6" s="13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5">
+        <v>43012</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5">
+        <v>43032</v>
+      </c>
+      <c r="G7" s="4">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4">
         <v>8</v>
       </c>
-      <c r="H6" s="13">
-        <v>12</v>
-      </c>
-      <c r="I6" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>-4</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13" t="s">
+      <c r="I7" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>2</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M7" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14">
-        <v>43012</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14">
-        <v>43032</v>
-      </c>
-      <c r="G7" s="13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5">
+        <v>42972</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
+        <v>43025</v>
+      </c>
+      <c r="G8" s="4">
         <v>10</v>
       </c>
-      <c r="H7" s="13">
-        <v>8</v>
-      </c>
-      <c r="I7" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>2</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="H8" s="4">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>7</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4">
+        <v>10</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>10</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4">
+        <v>10</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>10</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="4">
+        <v>10</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>10</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="4">
         <v>15</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14">
-        <v>42972</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14">
-        <v>43025</v>
-      </c>
-      <c r="G8" s="13">
-        <v>10</v>
-      </c>
-      <c r="H8" s="13">
-        <v>3</v>
-      </c>
-      <c r="I8" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>7</v>
-      </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="13">
-        <v>10</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>10</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="13">
-        <v>10</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>10</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="13">
-        <v>10</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>10</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="13">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
         <v>15</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>15</v>
-      </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="4">
         <v>5</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4">
         <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
         <v>5</v>
       </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13">
-        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4">
+        <f>Tabelle2[[#This Row],[Planned h]]-Tabelle2[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="A9:K51 A8:E8 G8:K8">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="17" priority="13">
       <formula>$E8 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>$F8 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:E8 G8:K8">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="15" priority="12">
       <formula>ISBLANK($F8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:K51">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="14" priority="11">
       <formula>ISBLANK($F9)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:K7 F8">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>$E5 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>$F5 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:K7 F8">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="11" priority="8">
       <formula>ISBLANK($F5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>$E5 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>$F5 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="8" priority="5">
       <formula>ISBLANK($F5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$E6 &lt;&gt; ""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>$F6 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>ISBLANK($F6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:K7 F8">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>Montag() &lt; $F7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2729,783 +2759,904 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="16"/>
+    <col min="2" max="2" width="37.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.5546875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="16" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="20">
+        <v>42943</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20">
+        <v>43021</v>
+      </c>
+      <c r="G7" s="16">
+        <v>2</v>
+      </c>
+      <c r="I7" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>2</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="I5">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="D8" s="20">
+        <v>43012</v>
+      </c>
+      <c r="F8" s="20">
+        <v>43025</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1</v>
+      </c>
+      <c r="I8" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I6">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="D9" s="20">
+        <v>43012</v>
+      </c>
+      <c r="F9" s="20">
+        <v>43025</v>
+      </c>
+      <c r="G9" s="16">
+        <v>5</v>
+      </c>
+      <c r="H9" s="16">
+        <v>2</v>
+      </c>
+      <c r="I9" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>3</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="20">
+        <v>43012</v>
+      </c>
+      <c r="E10" s="20">
+        <v>43024</v>
+      </c>
+      <c r="F10" s="20">
+        <v>43025</v>
+      </c>
+      <c r="G10" s="16">
+        <v>5</v>
+      </c>
+      <c r="H10" s="16">
+        <v>3</v>
+      </c>
+      <c r="I10" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>2</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="F11" s="20">
+        <v>43032</v>
+      </c>
+      <c r="G11" s="16">
+        <v>2</v>
+      </c>
+      <c r="I11" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>2</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B12" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="F12" s="20">
+        <v>43032</v>
+      </c>
+      <c r="G12" s="16">
+        <v>2</v>
+      </c>
+      <c r="I12" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>2</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20">
+        <v>43024</v>
+      </c>
+      <c r="F13" s="20">
+        <v>43025</v>
+      </c>
+      <c r="G13" s="16">
+        <v>2</v>
+      </c>
+      <c r="I13" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>2</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="F14" s="20">
+        <v>43032</v>
+      </c>
+      <c r="G14" s="16">
+        <v>8</v>
+      </c>
+      <c r="I14" s="21">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>8</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="20">
+        <v>42972</v>
+      </c>
+      <c r="E15" s="20">
+        <v>43024</v>
+      </c>
+      <c r="F15" s="20">
+        <v>43025</v>
+      </c>
+      <c r="G15" s="16">
+        <v>5</v>
+      </c>
+      <c r="H15" s="16">
+        <v>2</v>
+      </c>
+      <c r="I15" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>3</v>
+      </c>
+      <c r="J15" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="2">
-        <v>42943</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2">
-        <v>43021</v>
-      </c>
-      <c r="G7">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="20">
+        <v>43022</v>
+      </c>
+      <c r="E16" s="20">
+        <v>43024</v>
+      </c>
+      <c r="F16" s="20">
+        <v>43025</v>
+      </c>
+      <c r="G16" s="16">
+        <v>4</v>
+      </c>
+      <c r="H16" s="16">
+        <v>3</v>
+      </c>
+      <c r="I16" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>1</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="20">
+        <v>43023</v>
+      </c>
+      <c r="E17" s="20">
+        <v>43024</v>
+      </c>
+      <c r="F17" s="20">
+        <v>43025</v>
+      </c>
+      <c r="G17" s="16">
         <v>2</v>
       </c>
-      <c r="I7">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+      <c r="H17" s="16">
         <v>2</v>
       </c>
-      <c r="J7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="2">
-        <v>43012</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="I17" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="20">
+        <v>43024</v>
+      </c>
+      <c r="E18" s="20">
+        <v>43024</v>
+      </c>
+      <c r="F18" s="20">
         <v>43025</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="G18" s="16">
+        <v>4</v>
+      </c>
+      <c r="H18" s="16">
+        <v>2</v>
+      </c>
+      <c r="I18" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>2</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="20">
+        <v>43025</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20">
+        <v>43032</v>
+      </c>
+      <c r="G19" s="16">
+        <v>4</v>
+      </c>
+      <c r="I19" s="21">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>4</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="20">
+        <v>43026</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20">
+        <v>43032</v>
+      </c>
+      <c r="G20" s="16">
+        <v>5</v>
+      </c>
+      <c r="H20" s="16">
+        <v>2</v>
+      </c>
+      <c r="I20" s="21">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>3</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F21" s="20"/>
+      <c r="I21" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="2">
-        <v>43012</v>
-      </c>
-      <c r="F9" s="2">
-        <v>43025</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>3</v>
-      </c>
-      <c r="J9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="2">
-        <v>43012</v>
-      </c>
-      <c r="F10" s="2">
-        <v>43025</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="F11" s="2">
-        <v>43032</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="I11">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>2</v>
-      </c>
-      <c r="J11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="F12" s="2">
-        <v>43032</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>2</v>
-      </c>
-      <c r="J12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="F13" s="2">
-        <v>43025</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>2</v>
-      </c>
-      <c r="J13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="2">
-        <v>42972</v>
-      </c>
-      <c r="F14" s="2">
-        <v>43025</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>3</v>
-      </c>
-      <c r="J14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="F15" s="2">
-        <v>43025</v>
-      </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="I15">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>4</v>
-      </c>
-      <c r="J15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="2">
-        <v>43025</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>2</v>
-      </c>
-      <c r="J16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="2">
-        <v>43025</v>
-      </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="I17">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>4</v>
-      </c>
-      <c r="J17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F18" s="2"/>
-      <c r="I18">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="F22" s="20"/>
+      <c r="I22" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B23" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="I19">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="F23" s="20"/>
+      <c r="I23" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="I20">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="B24" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B25" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="I21">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="I25" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I26" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B27" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I30" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I31" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I34" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I35" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I36" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="I38" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I39" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="I40" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I41" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="I22">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I23">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B42" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I42" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="I24">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B25" t="s">
-        <v>83</v>
-      </c>
-      <c r="I25">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="I43" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="I44" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="I26">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" t="s">
-        <v>103</v>
-      </c>
-      <c r="I27">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I28">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" t="s">
-        <v>82</v>
-      </c>
-      <c r="I29">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" t="s">
-        <v>83</v>
-      </c>
-      <c r="I30">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>131</v>
-      </c>
-      <c r="B31" t="s">
-        <v>102</v>
-      </c>
-      <c r="I31">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>132</v>
-      </c>
-      <c r="B32" t="s">
-        <v>103</v>
-      </c>
-      <c r="I32">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I33">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" t="s">
-        <v>82</v>
-      </c>
-      <c r="I34">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>134</v>
-      </c>
-      <c r="B35" t="s">
-        <v>83</v>
-      </c>
-      <c r="I35">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>135</v>
-      </c>
-      <c r="B36" t="s">
-        <v>102</v>
-      </c>
-      <c r="I36">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="I45" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I46" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B37" t="s">
-        <v>103</v>
-      </c>
-      <c r="I37">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I38">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" t="s">
-        <v>82</v>
-      </c>
-      <c r="I39">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" t="s">
-        <v>83</v>
-      </c>
-      <c r="I40">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41" t="s">
-        <v>102</v>
-      </c>
-      <c r="I41">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" t="s">
-        <v>103</v>
-      </c>
-      <c r="I42">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I43">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="I47" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I48" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I49" s="21">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="I44">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I45">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I46" s="19">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="B50" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="I50" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="I51" s="21">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I52" s="21">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I53" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B47" t="s">
-        <v>144</v>
-      </c>
-      <c r="I47">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>143</v>
-      </c>
-      <c r="B48" t="s">
-        <v>145</v>
-      </c>
-      <c r="I48" s="19">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>146</v>
-      </c>
-      <c r="B49" t="s">
-        <v>147</v>
-      </c>
-      <c r="I49" s="19">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I50">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="B54" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B51" t="s">
+      <c r="I54" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="I51">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="B55" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="B52" t="s">
-        <v>142</v>
-      </c>
-      <c r="I52">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I53">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I54">
-        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I55">
+      <c r="I55" s="16">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I56">
+      <c r="I56" s="16">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I57">
+      <c r="I57" s="16">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I58">
+      <c r="I58" s="16">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I59">
+      <c r="I59" s="16">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I60">
+      <c r="I60" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I61" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I62" s="16">
+        <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I63" s="16">
         <f>Tabelle24[[#This Row],[Planned h]]-Tabelle24[[#This Row],[Worked h]]</f>
         <v>0</v>
       </c>
